--- a/data/Serie_Grupo_D.xlsx
+++ b/data/Serie_Grupo_D.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fibr1\Google Drive\IA369\T3\gui\ia369_t3\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="450" windowWidth="15480" windowHeight="7095" tabRatio="664"/>
+    <workbookView xWindow="360" yWindow="456" windowWidth="15480" windowHeight="7092" tabRatio="664"/>
   </bookViews>
   <sheets>
     <sheet name="Lista" sheetId="36" r:id="rId1"/>
@@ -49,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="351">
   <si>
     <t>Região Norte</t>
   </si>
@@ -432,12 +437,6 @@
     <t>D.2.1</t>
   </si>
   <si>
-    <t>D.23</t>
-  </si>
-  <si>
-    <t>Proporção de internações hospitalares (SUS) por afecções originadas no período perinatal</t>
-  </si>
-  <si>
     <t>D.2.2</t>
   </si>
   <si>
@@ -465,18 +464,6 @@
     <t>Taxa de incidência de neoplasias malignas</t>
   </si>
   <si>
-    <t>D.29</t>
-  </si>
-  <si>
-    <t>Taxa de internação hospitalar (SUS) por causas selecionadas</t>
-  </si>
-  <si>
-    <t>D.30</t>
-  </si>
-  <si>
-    <t>Taxa de internação hospitalar (SUS) por causas externas</t>
-  </si>
-  <si>
     <t>D.22</t>
   </si>
   <si>
@@ -523,9 +510,6 @@
   </si>
   <si>
     <t>Taxa de incidência de acidentes e doenças do trabalho em segurados da Previdência Social, por ano, segundo região e tipo de acidente e doença.</t>
-  </si>
-  <si>
-    <t>Região/tipo de acidente e doença</t>
   </si>
   <si>
     <t>Taxa de incidência de neoplasias malignas por 100.000 habitantes, por ano e sexo, segundo localização e região.</t>
@@ -1128,7 +1112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1905,6 +1889,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="18" xfId="34" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="19" xfId="34" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1914,8 +1900,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="18" xfId="34" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="19" xfId="34" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Ênfase1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1969,6 +1953,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1976,7 +1963,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2014,9 +2001,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2049,9 +2036,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2084,9 +2088,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2263,588 +2284,566 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="82" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="70.7109375" style="2" customWidth="1"/>
-    <col min="5" max="256" width="9.140625" style="2"/>
-    <col min="257" max="257" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="70.7109375" style="2" customWidth="1"/>
-    <col min="259" max="259" width="9.140625" style="2"/>
-    <col min="260" max="260" width="70.7109375" style="2" customWidth="1"/>
-    <col min="261" max="512" width="9.140625" style="2"/>
-    <col min="513" max="513" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="70.7109375" style="2" customWidth="1"/>
-    <col min="515" max="515" width="9.140625" style="2"/>
-    <col min="516" max="516" width="70.7109375" style="2" customWidth="1"/>
-    <col min="517" max="768" width="9.140625" style="2"/>
-    <col min="769" max="769" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="770" max="770" width="70.7109375" style="2" customWidth="1"/>
-    <col min="771" max="771" width="9.140625" style="2"/>
-    <col min="772" max="772" width="70.7109375" style="2" customWidth="1"/>
-    <col min="773" max="1024" width="9.140625" style="2"/>
-    <col min="1025" max="1025" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1026" width="70.7109375" style="2" customWidth="1"/>
-    <col min="1027" max="1027" width="9.140625" style="2"/>
-    <col min="1028" max="1028" width="70.7109375" style="2" customWidth="1"/>
-    <col min="1029" max="1280" width="9.140625" style="2"/>
-    <col min="1281" max="1281" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1282" width="70.7109375" style="2" customWidth="1"/>
-    <col min="1283" max="1283" width="9.140625" style="2"/>
-    <col min="1284" max="1284" width="70.7109375" style="2" customWidth="1"/>
-    <col min="1285" max="1536" width="9.140625" style="2"/>
-    <col min="1537" max="1537" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1538" width="70.7109375" style="2" customWidth="1"/>
-    <col min="1539" max="1539" width="9.140625" style="2"/>
-    <col min="1540" max="1540" width="70.7109375" style="2" customWidth="1"/>
-    <col min="1541" max="1792" width="9.140625" style="2"/>
-    <col min="1793" max="1793" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="1794" max="1794" width="70.7109375" style="2" customWidth="1"/>
-    <col min="1795" max="1795" width="9.140625" style="2"/>
-    <col min="1796" max="1796" width="70.7109375" style="2" customWidth="1"/>
-    <col min="1797" max="2048" width="9.140625" style="2"/>
-    <col min="2049" max="2049" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2050" width="70.7109375" style="2" customWidth="1"/>
-    <col min="2051" max="2051" width="9.140625" style="2"/>
-    <col min="2052" max="2052" width="70.7109375" style="2" customWidth="1"/>
-    <col min="2053" max="2304" width="9.140625" style="2"/>
-    <col min="2305" max="2305" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2306" width="70.7109375" style="2" customWidth="1"/>
-    <col min="2307" max="2307" width="9.140625" style="2"/>
-    <col min="2308" max="2308" width="70.7109375" style="2" customWidth="1"/>
-    <col min="2309" max="2560" width="9.140625" style="2"/>
-    <col min="2561" max="2561" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2562" width="70.7109375" style="2" customWidth="1"/>
-    <col min="2563" max="2563" width="9.140625" style="2"/>
-    <col min="2564" max="2564" width="70.7109375" style="2" customWidth="1"/>
-    <col min="2565" max="2816" width="9.140625" style="2"/>
-    <col min="2817" max="2817" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2818" max="2818" width="70.7109375" style="2" customWidth="1"/>
-    <col min="2819" max="2819" width="9.140625" style="2"/>
-    <col min="2820" max="2820" width="70.7109375" style="2" customWidth="1"/>
-    <col min="2821" max="3072" width="9.140625" style="2"/>
-    <col min="3073" max="3073" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3074" width="70.7109375" style="2" customWidth="1"/>
-    <col min="3075" max="3075" width="9.140625" style="2"/>
-    <col min="3076" max="3076" width="70.7109375" style="2" customWidth="1"/>
-    <col min="3077" max="3328" width="9.140625" style="2"/>
-    <col min="3329" max="3329" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3330" width="70.7109375" style="2" customWidth="1"/>
-    <col min="3331" max="3331" width="9.140625" style="2"/>
-    <col min="3332" max="3332" width="70.7109375" style="2" customWidth="1"/>
-    <col min="3333" max="3584" width="9.140625" style="2"/>
-    <col min="3585" max="3585" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3586" width="70.7109375" style="2" customWidth="1"/>
-    <col min="3587" max="3587" width="9.140625" style="2"/>
-    <col min="3588" max="3588" width="70.7109375" style="2" customWidth="1"/>
-    <col min="3589" max="3840" width="9.140625" style="2"/>
-    <col min="3841" max="3841" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3842" max="3842" width="70.7109375" style="2" customWidth="1"/>
-    <col min="3843" max="3843" width="9.140625" style="2"/>
-    <col min="3844" max="3844" width="70.7109375" style="2" customWidth="1"/>
-    <col min="3845" max="4096" width="9.140625" style="2"/>
-    <col min="4097" max="4097" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4098" width="70.7109375" style="2" customWidth="1"/>
-    <col min="4099" max="4099" width="9.140625" style="2"/>
-    <col min="4100" max="4100" width="70.7109375" style="2" customWidth="1"/>
-    <col min="4101" max="4352" width="9.140625" style="2"/>
-    <col min="4353" max="4353" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4354" width="70.7109375" style="2" customWidth="1"/>
-    <col min="4355" max="4355" width="9.140625" style="2"/>
-    <col min="4356" max="4356" width="70.7109375" style="2" customWidth="1"/>
-    <col min="4357" max="4608" width="9.140625" style="2"/>
-    <col min="4609" max="4609" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4610" width="70.7109375" style="2" customWidth="1"/>
-    <col min="4611" max="4611" width="9.140625" style="2"/>
-    <col min="4612" max="4612" width="70.7109375" style="2" customWidth="1"/>
-    <col min="4613" max="4864" width="9.140625" style="2"/>
-    <col min="4865" max="4865" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4866" max="4866" width="70.7109375" style="2" customWidth="1"/>
-    <col min="4867" max="4867" width="9.140625" style="2"/>
-    <col min="4868" max="4868" width="70.7109375" style="2" customWidth="1"/>
-    <col min="4869" max="5120" width="9.140625" style="2"/>
-    <col min="5121" max="5121" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5122" width="70.7109375" style="2" customWidth="1"/>
-    <col min="5123" max="5123" width="9.140625" style="2"/>
-    <col min="5124" max="5124" width="70.7109375" style="2" customWidth="1"/>
-    <col min="5125" max="5376" width="9.140625" style="2"/>
-    <col min="5377" max="5377" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5378" width="70.7109375" style="2" customWidth="1"/>
-    <col min="5379" max="5379" width="9.140625" style="2"/>
-    <col min="5380" max="5380" width="70.7109375" style="2" customWidth="1"/>
-    <col min="5381" max="5632" width="9.140625" style="2"/>
-    <col min="5633" max="5633" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5634" width="70.7109375" style="2" customWidth="1"/>
-    <col min="5635" max="5635" width="9.140625" style="2"/>
-    <col min="5636" max="5636" width="70.7109375" style="2" customWidth="1"/>
-    <col min="5637" max="5888" width="9.140625" style="2"/>
-    <col min="5889" max="5889" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5890" max="5890" width="70.7109375" style="2" customWidth="1"/>
-    <col min="5891" max="5891" width="9.140625" style="2"/>
-    <col min="5892" max="5892" width="70.7109375" style="2" customWidth="1"/>
-    <col min="5893" max="6144" width="9.140625" style="2"/>
-    <col min="6145" max="6145" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6146" width="70.7109375" style="2" customWidth="1"/>
-    <col min="6147" max="6147" width="9.140625" style="2"/>
-    <col min="6148" max="6148" width="70.7109375" style="2" customWidth="1"/>
-    <col min="6149" max="6400" width="9.140625" style="2"/>
-    <col min="6401" max="6401" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6402" width="70.7109375" style="2" customWidth="1"/>
-    <col min="6403" max="6403" width="9.140625" style="2"/>
-    <col min="6404" max="6404" width="70.7109375" style="2" customWidth="1"/>
-    <col min="6405" max="6656" width="9.140625" style="2"/>
-    <col min="6657" max="6657" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6658" width="70.7109375" style="2" customWidth="1"/>
-    <col min="6659" max="6659" width="9.140625" style="2"/>
-    <col min="6660" max="6660" width="70.7109375" style="2" customWidth="1"/>
-    <col min="6661" max="6912" width="9.140625" style="2"/>
-    <col min="6913" max="6913" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6914" max="6914" width="70.7109375" style="2" customWidth="1"/>
-    <col min="6915" max="6915" width="9.140625" style="2"/>
-    <col min="6916" max="6916" width="70.7109375" style="2" customWidth="1"/>
-    <col min="6917" max="7168" width="9.140625" style="2"/>
-    <col min="7169" max="7169" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7170" width="70.7109375" style="2" customWidth="1"/>
-    <col min="7171" max="7171" width="9.140625" style="2"/>
-    <col min="7172" max="7172" width="70.7109375" style="2" customWidth="1"/>
-    <col min="7173" max="7424" width="9.140625" style="2"/>
-    <col min="7425" max="7425" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7426" width="70.7109375" style="2" customWidth="1"/>
-    <col min="7427" max="7427" width="9.140625" style="2"/>
-    <col min="7428" max="7428" width="70.7109375" style="2" customWidth="1"/>
-    <col min="7429" max="7680" width="9.140625" style="2"/>
-    <col min="7681" max="7681" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7682" width="70.7109375" style="2" customWidth="1"/>
-    <col min="7683" max="7683" width="9.140625" style="2"/>
-    <col min="7684" max="7684" width="70.7109375" style="2" customWidth="1"/>
-    <col min="7685" max="7936" width="9.140625" style="2"/>
-    <col min="7937" max="7937" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7938" max="7938" width="70.7109375" style="2" customWidth="1"/>
-    <col min="7939" max="7939" width="9.140625" style="2"/>
-    <col min="7940" max="7940" width="70.7109375" style="2" customWidth="1"/>
-    <col min="7941" max="8192" width="9.140625" style="2"/>
-    <col min="8193" max="8193" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8194" width="70.7109375" style="2" customWidth="1"/>
-    <col min="8195" max="8195" width="9.140625" style="2"/>
-    <col min="8196" max="8196" width="70.7109375" style="2" customWidth="1"/>
-    <col min="8197" max="8448" width="9.140625" style="2"/>
-    <col min="8449" max="8449" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8450" width="70.7109375" style="2" customWidth="1"/>
-    <col min="8451" max="8451" width="9.140625" style="2"/>
-    <col min="8452" max="8452" width="70.7109375" style="2" customWidth="1"/>
-    <col min="8453" max="8704" width="9.140625" style="2"/>
-    <col min="8705" max="8705" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8706" width="70.7109375" style="2" customWidth="1"/>
-    <col min="8707" max="8707" width="9.140625" style="2"/>
-    <col min="8708" max="8708" width="70.7109375" style="2" customWidth="1"/>
-    <col min="8709" max="8960" width="9.140625" style="2"/>
-    <col min="8961" max="8961" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8962" max="8962" width="70.7109375" style="2" customWidth="1"/>
-    <col min="8963" max="8963" width="9.140625" style="2"/>
-    <col min="8964" max="8964" width="70.7109375" style="2" customWidth="1"/>
-    <col min="8965" max="9216" width="9.140625" style="2"/>
-    <col min="9217" max="9217" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9218" width="70.7109375" style="2" customWidth="1"/>
-    <col min="9219" max="9219" width="9.140625" style="2"/>
-    <col min="9220" max="9220" width="70.7109375" style="2" customWidth="1"/>
-    <col min="9221" max="9472" width="9.140625" style="2"/>
-    <col min="9473" max="9473" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9474" width="70.7109375" style="2" customWidth="1"/>
-    <col min="9475" max="9475" width="9.140625" style="2"/>
-    <col min="9476" max="9476" width="70.7109375" style="2" customWidth="1"/>
-    <col min="9477" max="9728" width="9.140625" style="2"/>
-    <col min="9729" max="9729" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9730" width="70.7109375" style="2" customWidth="1"/>
-    <col min="9731" max="9731" width="9.140625" style="2"/>
-    <col min="9732" max="9732" width="70.7109375" style="2" customWidth="1"/>
-    <col min="9733" max="9984" width="9.140625" style="2"/>
-    <col min="9985" max="9985" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9986" max="9986" width="70.7109375" style="2" customWidth="1"/>
-    <col min="9987" max="9987" width="9.140625" style="2"/>
-    <col min="9988" max="9988" width="70.7109375" style="2" customWidth="1"/>
-    <col min="9989" max="10240" width="9.140625" style="2"/>
-    <col min="10241" max="10241" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10242" width="70.7109375" style="2" customWidth="1"/>
-    <col min="10243" max="10243" width="9.140625" style="2"/>
-    <col min="10244" max="10244" width="70.7109375" style="2" customWidth="1"/>
-    <col min="10245" max="10496" width="9.140625" style="2"/>
-    <col min="10497" max="10497" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10498" width="70.7109375" style="2" customWidth="1"/>
-    <col min="10499" max="10499" width="9.140625" style="2"/>
-    <col min="10500" max="10500" width="70.7109375" style="2" customWidth="1"/>
-    <col min="10501" max="10752" width="9.140625" style="2"/>
-    <col min="10753" max="10753" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10754" max="10754" width="70.7109375" style="2" customWidth="1"/>
-    <col min="10755" max="10755" width="9.140625" style="2"/>
-    <col min="10756" max="10756" width="70.7109375" style="2" customWidth="1"/>
-    <col min="10757" max="11008" width="9.140625" style="2"/>
-    <col min="11009" max="11009" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11010" width="70.7109375" style="2" customWidth="1"/>
-    <col min="11011" max="11011" width="9.140625" style="2"/>
-    <col min="11012" max="11012" width="70.7109375" style="2" customWidth="1"/>
-    <col min="11013" max="11264" width="9.140625" style="2"/>
-    <col min="11265" max="11265" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11266" width="70.7109375" style="2" customWidth="1"/>
-    <col min="11267" max="11267" width="9.140625" style="2"/>
-    <col min="11268" max="11268" width="70.7109375" style="2" customWidth="1"/>
-    <col min="11269" max="11520" width="9.140625" style="2"/>
-    <col min="11521" max="11521" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11522" width="70.7109375" style="2" customWidth="1"/>
-    <col min="11523" max="11523" width="9.140625" style="2"/>
-    <col min="11524" max="11524" width="70.7109375" style="2" customWidth="1"/>
-    <col min="11525" max="11776" width="9.140625" style="2"/>
-    <col min="11777" max="11777" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11778" max="11778" width="70.7109375" style="2" customWidth="1"/>
-    <col min="11779" max="11779" width="9.140625" style="2"/>
-    <col min="11780" max="11780" width="70.7109375" style="2" customWidth="1"/>
-    <col min="11781" max="12032" width="9.140625" style="2"/>
-    <col min="12033" max="12033" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12034" width="70.7109375" style="2" customWidth="1"/>
-    <col min="12035" max="12035" width="9.140625" style="2"/>
-    <col min="12036" max="12036" width="70.7109375" style="2" customWidth="1"/>
-    <col min="12037" max="12288" width="9.140625" style="2"/>
-    <col min="12289" max="12289" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12290" width="70.7109375" style="2" customWidth="1"/>
-    <col min="12291" max="12291" width="9.140625" style="2"/>
-    <col min="12292" max="12292" width="70.7109375" style="2" customWidth="1"/>
-    <col min="12293" max="12544" width="9.140625" style="2"/>
-    <col min="12545" max="12545" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12546" width="70.7109375" style="2" customWidth="1"/>
-    <col min="12547" max="12547" width="9.140625" style="2"/>
-    <col min="12548" max="12548" width="70.7109375" style="2" customWidth="1"/>
-    <col min="12549" max="12800" width="9.140625" style="2"/>
-    <col min="12801" max="12801" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12802" max="12802" width="70.7109375" style="2" customWidth="1"/>
-    <col min="12803" max="12803" width="9.140625" style="2"/>
-    <col min="12804" max="12804" width="70.7109375" style="2" customWidth="1"/>
-    <col min="12805" max="13056" width="9.140625" style="2"/>
-    <col min="13057" max="13057" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13058" width="70.7109375" style="2" customWidth="1"/>
-    <col min="13059" max="13059" width="9.140625" style="2"/>
-    <col min="13060" max="13060" width="70.7109375" style="2" customWidth="1"/>
-    <col min="13061" max="13312" width="9.140625" style="2"/>
-    <col min="13313" max="13313" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13314" width="70.7109375" style="2" customWidth="1"/>
-    <col min="13315" max="13315" width="9.140625" style="2"/>
-    <col min="13316" max="13316" width="70.7109375" style="2" customWidth="1"/>
-    <col min="13317" max="13568" width="9.140625" style="2"/>
-    <col min="13569" max="13569" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13570" width="70.7109375" style="2" customWidth="1"/>
-    <col min="13571" max="13571" width="9.140625" style="2"/>
-    <col min="13572" max="13572" width="70.7109375" style="2" customWidth="1"/>
-    <col min="13573" max="13824" width="9.140625" style="2"/>
-    <col min="13825" max="13825" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13826" max="13826" width="70.7109375" style="2" customWidth="1"/>
-    <col min="13827" max="13827" width="9.140625" style="2"/>
-    <col min="13828" max="13828" width="70.7109375" style="2" customWidth="1"/>
-    <col min="13829" max="14080" width="9.140625" style="2"/>
-    <col min="14081" max="14081" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14082" width="70.7109375" style="2" customWidth="1"/>
-    <col min="14083" max="14083" width="9.140625" style="2"/>
-    <col min="14084" max="14084" width="70.7109375" style="2" customWidth="1"/>
-    <col min="14085" max="14336" width="9.140625" style="2"/>
-    <col min="14337" max="14337" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14338" width="70.7109375" style="2" customWidth="1"/>
-    <col min="14339" max="14339" width="9.140625" style="2"/>
-    <col min="14340" max="14340" width="70.7109375" style="2" customWidth="1"/>
-    <col min="14341" max="14592" width="9.140625" style="2"/>
-    <col min="14593" max="14593" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14594" width="70.7109375" style="2" customWidth="1"/>
-    <col min="14595" max="14595" width="9.140625" style="2"/>
-    <col min="14596" max="14596" width="70.7109375" style="2" customWidth="1"/>
-    <col min="14597" max="14848" width="9.140625" style="2"/>
-    <col min="14849" max="14849" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14850" max="14850" width="70.7109375" style="2" customWidth="1"/>
-    <col min="14851" max="14851" width="9.140625" style="2"/>
-    <col min="14852" max="14852" width="70.7109375" style="2" customWidth="1"/>
-    <col min="14853" max="15104" width="9.140625" style="2"/>
-    <col min="15105" max="15105" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15106" width="70.7109375" style="2" customWidth="1"/>
-    <col min="15107" max="15107" width="9.140625" style="2"/>
-    <col min="15108" max="15108" width="70.7109375" style="2" customWidth="1"/>
-    <col min="15109" max="15360" width="9.140625" style="2"/>
-    <col min="15361" max="15361" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15362" width="70.7109375" style="2" customWidth="1"/>
-    <col min="15363" max="15363" width="9.140625" style="2"/>
-    <col min="15364" max="15364" width="70.7109375" style="2" customWidth="1"/>
-    <col min="15365" max="15616" width="9.140625" style="2"/>
-    <col min="15617" max="15617" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15618" width="70.7109375" style="2" customWidth="1"/>
-    <col min="15619" max="15619" width="9.140625" style="2"/>
-    <col min="15620" max="15620" width="70.7109375" style="2" customWidth="1"/>
-    <col min="15621" max="15872" width="9.140625" style="2"/>
-    <col min="15873" max="15873" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15874" max="15874" width="70.7109375" style="2" customWidth="1"/>
-    <col min="15875" max="15875" width="9.140625" style="2"/>
-    <col min="15876" max="15876" width="70.7109375" style="2" customWidth="1"/>
-    <col min="15877" max="16128" width="9.140625" style="2"/>
-    <col min="16129" max="16129" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16130" width="70.7109375" style="2" customWidth="1"/>
-    <col min="16131" max="16131" width="9.140625" style="2"/>
-    <col min="16132" max="16132" width="70.7109375" style="2" customWidth="1"/>
-    <col min="16133" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="70.6640625" style="2" customWidth="1"/>
+    <col min="5" max="256" width="9.109375" style="2"/>
+    <col min="257" max="257" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="70.6640625" style="2" customWidth="1"/>
+    <col min="259" max="259" width="9.109375" style="2"/>
+    <col min="260" max="260" width="70.6640625" style="2" customWidth="1"/>
+    <col min="261" max="512" width="9.109375" style="2"/>
+    <col min="513" max="513" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="70.6640625" style="2" customWidth="1"/>
+    <col min="515" max="515" width="9.109375" style="2"/>
+    <col min="516" max="516" width="70.6640625" style="2" customWidth="1"/>
+    <col min="517" max="768" width="9.109375" style="2"/>
+    <col min="769" max="769" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="70.6640625" style="2" customWidth="1"/>
+    <col min="771" max="771" width="9.109375" style="2"/>
+    <col min="772" max="772" width="70.6640625" style="2" customWidth="1"/>
+    <col min="773" max="1024" width="9.109375" style="2"/>
+    <col min="1025" max="1025" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="70.6640625" style="2" customWidth="1"/>
+    <col min="1027" max="1027" width="9.109375" style="2"/>
+    <col min="1028" max="1028" width="70.6640625" style="2" customWidth="1"/>
+    <col min="1029" max="1280" width="9.109375" style="2"/>
+    <col min="1281" max="1281" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="70.6640625" style="2" customWidth="1"/>
+    <col min="1283" max="1283" width="9.109375" style="2"/>
+    <col min="1284" max="1284" width="70.6640625" style="2" customWidth="1"/>
+    <col min="1285" max="1536" width="9.109375" style="2"/>
+    <col min="1537" max="1537" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="70.6640625" style="2" customWidth="1"/>
+    <col min="1539" max="1539" width="9.109375" style="2"/>
+    <col min="1540" max="1540" width="70.6640625" style="2" customWidth="1"/>
+    <col min="1541" max="1792" width="9.109375" style="2"/>
+    <col min="1793" max="1793" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="70.6640625" style="2" customWidth="1"/>
+    <col min="1795" max="1795" width="9.109375" style="2"/>
+    <col min="1796" max="1796" width="70.6640625" style="2" customWidth="1"/>
+    <col min="1797" max="2048" width="9.109375" style="2"/>
+    <col min="2049" max="2049" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="70.6640625" style="2" customWidth="1"/>
+    <col min="2051" max="2051" width="9.109375" style="2"/>
+    <col min="2052" max="2052" width="70.6640625" style="2" customWidth="1"/>
+    <col min="2053" max="2304" width="9.109375" style="2"/>
+    <col min="2305" max="2305" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="70.6640625" style="2" customWidth="1"/>
+    <col min="2307" max="2307" width="9.109375" style="2"/>
+    <col min="2308" max="2308" width="70.6640625" style="2" customWidth="1"/>
+    <col min="2309" max="2560" width="9.109375" style="2"/>
+    <col min="2561" max="2561" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="70.6640625" style="2" customWidth="1"/>
+    <col min="2563" max="2563" width="9.109375" style="2"/>
+    <col min="2564" max="2564" width="70.6640625" style="2" customWidth="1"/>
+    <col min="2565" max="2816" width="9.109375" style="2"/>
+    <col min="2817" max="2817" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="70.6640625" style="2" customWidth="1"/>
+    <col min="2819" max="2819" width="9.109375" style="2"/>
+    <col min="2820" max="2820" width="70.6640625" style="2" customWidth="1"/>
+    <col min="2821" max="3072" width="9.109375" style="2"/>
+    <col min="3073" max="3073" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="70.6640625" style="2" customWidth="1"/>
+    <col min="3075" max="3075" width="9.109375" style="2"/>
+    <col min="3076" max="3076" width="70.6640625" style="2" customWidth="1"/>
+    <col min="3077" max="3328" width="9.109375" style="2"/>
+    <col min="3329" max="3329" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="70.6640625" style="2" customWidth="1"/>
+    <col min="3331" max="3331" width="9.109375" style="2"/>
+    <col min="3332" max="3332" width="70.6640625" style="2" customWidth="1"/>
+    <col min="3333" max="3584" width="9.109375" style="2"/>
+    <col min="3585" max="3585" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="70.6640625" style="2" customWidth="1"/>
+    <col min="3587" max="3587" width="9.109375" style="2"/>
+    <col min="3588" max="3588" width="70.6640625" style="2" customWidth="1"/>
+    <col min="3589" max="3840" width="9.109375" style="2"/>
+    <col min="3841" max="3841" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="70.6640625" style="2" customWidth="1"/>
+    <col min="3843" max="3843" width="9.109375" style="2"/>
+    <col min="3844" max="3844" width="70.6640625" style="2" customWidth="1"/>
+    <col min="3845" max="4096" width="9.109375" style="2"/>
+    <col min="4097" max="4097" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="70.6640625" style="2" customWidth="1"/>
+    <col min="4099" max="4099" width="9.109375" style="2"/>
+    <col min="4100" max="4100" width="70.6640625" style="2" customWidth="1"/>
+    <col min="4101" max="4352" width="9.109375" style="2"/>
+    <col min="4353" max="4353" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="70.6640625" style="2" customWidth="1"/>
+    <col min="4355" max="4355" width="9.109375" style="2"/>
+    <col min="4356" max="4356" width="70.6640625" style="2" customWidth="1"/>
+    <col min="4357" max="4608" width="9.109375" style="2"/>
+    <col min="4609" max="4609" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="70.6640625" style="2" customWidth="1"/>
+    <col min="4611" max="4611" width="9.109375" style="2"/>
+    <col min="4612" max="4612" width="70.6640625" style="2" customWidth="1"/>
+    <col min="4613" max="4864" width="9.109375" style="2"/>
+    <col min="4865" max="4865" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="70.6640625" style="2" customWidth="1"/>
+    <col min="4867" max="4867" width="9.109375" style="2"/>
+    <col min="4868" max="4868" width="70.6640625" style="2" customWidth="1"/>
+    <col min="4869" max="5120" width="9.109375" style="2"/>
+    <col min="5121" max="5121" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="70.6640625" style="2" customWidth="1"/>
+    <col min="5123" max="5123" width="9.109375" style="2"/>
+    <col min="5124" max="5124" width="70.6640625" style="2" customWidth="1"/>
+    <col min="5125" max="5376" width="9.109375" style="2"/>
+    <col min="5377" max="5377" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="70.6640625" style="2" customWidth="1"/>
+    <col min="5379" max="5379" width="9.109375" style="2"/>
+    <col min="5380" max="5380" width="70.6640625" style="2" customWidth="1"/>
+    <col min="5381" max="5632" width="9.109375" style="2"/>
+    <col min="5633" max="5633" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="70.6640625" style="2" customWidth="1"/>
+    <col min="5635" max="5635" width="9.109375" style="2"/>
+    <col min="5636" max="5636" width="70.6640625" style="2" customWidth="1"/>
+    <col min="5637" max="5888" width="9.109375" style="2"/>
+    <col min="5889" max="5889" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="70.6640625" style="2" customWidth="1"/>
+    <col min="5891" max="5891" width="9.109375" style="2"/>
+    <col min="5892" max="5892" width="70.6640625" style="2" customWidth="1"/>
+    <col min="5893" max="6144" width="9.109375" style="2"/>
+    <col min="6145" max="6145" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="70.6640625" style="2" customWidth="1"/>
+    <col min="6147" max="6147" width="9.109375" style="2"/>
+    <col min="6148" max="6148" width="70.6640625" style="2" customWidth="1"/>
+    <col min="6149" max="6400" width="9.109375" style="2"/>
+    <col min="6401" max="6401" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="70.6640625" style="2" customWidth="1"/>
+    <col min="6403" max="6403" width="9.109375" style="2"/>
+    <col min="6404" max="6404" width="70.6640625" style="2" customWidth="1"/>
+    <col min="6405" max="6656" width="9.109375" style="2"/>
+    <col min="6657" max="6657" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="70.6640625" style="2" customWidth="1"/>
+    <col min="6659" max="6659" width="9.109375" style="2"/>
+    <col min="6660" max="6660" width="70.6640625" style="2" customWidth="1"/>
+    <col min="6661" max="6912" width="9.109375" style="2"/>
+    <col min="6913" max="6913" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="70.6640625" style="2" customWidth="1"/>
+    <col min="6915" max="6915" width="9.109375" style="2"/>
+    <col min="6916" max="6916" width="70.6640625" style="2" customWidth="1"/>
+    <col min="6917" max="7168" width="9.109375" style="2"/>
+    <col min="7169" max="7169" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="70.6640625" style="2" customWidth="1"/>
+    <col min="7171" max="7171" width="9.109375" style="2"/>
+    <col min="7172" max="7172" width="70.6640625" style="2" customWidth="1"/>
+    <col min="7173" max="7424" width="9.109375" style="2"/>
+    <col min="7425" max="7425" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="70.6640625" style="2" customWidth="1"/>
+    <col min="7427" max="7427" width="9.109375" style="2"/>
+    <col min="7428" max="7428" width="70.6640625" style="2" customWidth="1"/>
+    <col min="7429" max="7680" width="9.109375" style="2"/>
+    <col min="7681" max="7681" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="70.6640625" style="2" customWidth="1"/>
+    <col min="7683" max="7683" width="9.109375" style="2"/>
+    <col min="7684" max="7684" width="70.6640625" style="2" customWidth="1"/>
+    <col min="7685" max="7936" width="9.109375" style="2"/>
+    <col min="7937" max="7937" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="70.6640625" style="2" customWidth="1"/>
+    <col min="7939" max="7939" width="9.109375" style="2"/>
+    <col min="7940" max="7940" width="70.6640625" style="2" customWidth="1"/>
+    <col min="7941" max="8192" width="9.109375" style="2"/>
+    <col min="8193" max="8193" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="70.6640625" style="2" customWidth="1"/>
+    <col min="8195" max="8195" width="9.109375" style="2"/>
+    <col min="8196" max="8196" width="70.6640625" style="2" customWidth="1"/>
+    <col min="8197" max="8448" width="9.109375" style="2"/>
+    <col min="8449" max="8449" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="70.6640625" style="2" customWidth="1"/>
+    <col min="8451" max="8451" width="9.109375" style="2"/>
+    <col min="8452" max="8452" width="70.6640625" style="2" customWidth="1"/>
+    <col min="8453" max="8704" width="9.109375" style="2"/>
+    <col min="8705" max="8705" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="70.6640625" style="2" customWidth="1"/>
+    <col min="8707" max="8707" width="9.109375" style="2"/>
+    <col min="8708" max="8708" width="70.6640625" style="2" customWidth="1"/>
+    <col min="8709" max="8960" width="9.109375" style="2"/>
+    <col min="8961" max="8961" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="70.6640625" style="2" customWidth="1"/>
+    <col min="8963" max="8963" width="9.109375" style="2"/>
+    <col min="8964" max="8964" width="70.6640625" style="2" customWidth="1"/>
+    <col min="8965" max="9216" width="9.109375" style="2"/>
+    <col min="9217" max="9217" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="70.6640625" style="2" customWidth="1"/>
+    <col min="9219" max="9219" width="9.109375" style="2"/>
+    <col min="9220" max="9220" width="70.6640625" style="2" customWidth="1"/>
+    <col min="9221" max="9472" width="9.109375" style="2"/>
+    <col min="9473" max="9473" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="70.6640625" style="2" customWidth="1"/>
+    <col min="9475" max="9475" width="9.109375" style="2"/>
+    <col min="9476" max="9476" width="70.6640625" style="2" customWidth="1"/>
+    <col min="9477" max="9728" width="9.109375" style="2"/>
+    <col min="9729" max="9729" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="70.6640625" style="2" customWidth="1"/>
+    <col min="9731" max="9731" width="9.109375" style="2"/>
+    <col min="9732" max="9732" width="70.6640625" style="2" customWidth="1"/>
+    <col min="9733" max="9984" width="9.109375" style="2"/>
+    <col min="9985" max="9985" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="70.6640625" style="2" customWidth="1"/>
+    <col min="9987" max="9987" width="9.109375" style="2"/>
+    <col min="9988" max="9988" width="70.6640625" style="2" customWidth="1"/>
+    <col min="9989" max="10240" width="9.109375" style="2"/>
+    <col min="10241" max="10241" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="70.6640625" style="2" customWidth="1"/>
+    <col min="10243" max="10243" width="9.109375" style="2"/>
+    <col min="10244" max="10244" width="70.6640625" style="2" customWidth="1"/>
+    <col min="10245" max="10496" width="9.109375" style="2"/>
+    <col min="10497" max="10497" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="70.6640625" style="2" customWidth="1"/>
+    <col min="10499" max="10499" width="9.109375" style="2"/>
+    <col min="10500" max="10500" width="70.6640625" style="2" customWidth="1"/>
+    <col min="10501" max="10752" width="9.109375" style="2"/>
+    <col min="10753" max="10753" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="70.6640625" style="2" customWidth="1"/>
+    <col min="10755" max="10755" width="9.109375" style="2"/>
+    <col min="10756" max="10756" width="70.6640625" style="2" customWidth="1"/>
+    <col min="10757" max="11008" width="9.109375" style="2"/>
+    <col min="11009" max="11009" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="70.6640625" style="2" customWidth="1"/>
+    <col min="11011" max="11011" width="9.109375" style="2"/>
+    <col min="11012" max="11012" width="70.6640625" style="2" customWidth="1"/>
+    <col min="11013" max="11264" width="9.109375" style="2"/>
+    <col min="11265" max="11265" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="70.6640625" style="2" customWidth="1"/>
+    <col min="11267" max="11267" width="9.109375" style="2"/>
+    <col min="11268" max="11268" width="70.6640625" style="2" customWidth="1"/>
+    <col min="11269" max="11520" width="9.109375" style="2"/>
+    <col min="11521" max="11521" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="70.6640625" style="2" customWidth="1"/>
+    <col min="11523" max="11523" width="9.109375" style="2"/>
+    <col min="11524" max="11524" width="70.6640625" style="2" customWidth="1"/>
+    <col min="11525" max="11776" width="9.109375" style="2"/>
+    <col min="11777" max="11777" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="70.6640625" style="2" customWidth="1"/>
+    <col min="11779" max="11779" width="9.109375" style="2"/>
+    <col min="11780" max="11780" width="70.6640625" style="2" customWidth="1"/>
+    <col min="11781" max="12032" width="9.109375" style="2"/>
+    <col min="12033" max="12033" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="70.6640625" style="2" customWidth="1"/>
+    <col min="12035" max="12035" width="9.109375" style="2"/>
+    <col min="12036" max="12036" width="70.6640625" style="2" customWidth="1"/>
+    <col min="12037" max="12288" width="9.109375" style="2"/>
+    <col min="12289" max="12289" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="70.6640625" style="2" customWidth="1"/>
+    <col min="12291" max="12291" width="9.109375" style="2"/>
+    <col min="12292" max="12292" width="70.6640625" style="2" customWidth="1"/>
+    <col min="12293" max="12544" width="9.109375" style="2"/>
+    <col min="12545" max="12545" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="70.6640625" style="2" customWidth="1"/>
+    <col min="12547" max="12547" width="9.109375" style="2"/>
+    <col min="12548" max="12548" width="70.6640625" style="2" customWidth="1"/>
+    <col min="12549" max="12800" width="9.109375" style="2"/>
+    <col min="12801" max="12801" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="70.6640625" style="2" customWidth="1"/>
+    <col min="12803" max="12803" width="9.109375" style="2"/>
+    <col min="12804" max="12804" width="70.6640625" style="2" customWidth="1"/>
+    <col min="12805" max="13056" width="9.109375" style="2"/>
+    <col min="13057" max="13057" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="70.6640625" style="2" customWidth="1"/>
+    <col min="13059" max="13059" width="9.109375" style="2"/>
+    <col min="13060" max="13060" width="70.6640625" style="2" customWidth="1"/>
+    <col min="13061" max="13312" width="9.109375" style="2"/>
+    <col min="13313" max="13313" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="70.6640625" style="2" customWidth="1"/>
+    <col min="13315" max="13315" width="9.109375" style="2"/>
+    <col min="13316" max="13316" width="70.6640625" style="2" customWidth="1"/>
+    <col min="13317" max="13568" width="9.109375" style="2"/>
+    <col min="13569" max="13569" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="70.6640625" style="2" customWidth="1"/>
+    <col min="13571" max="13571" width="9.109375" style="2"/>
+    <col min="13572" max="13572" width="70.6640625" style="2" customWidth="1"/>
+    <col min="13573" max="13824" width="9.109375" style="2"/>
+    <col min="13825" max="13825" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="70.6640625" style="2" customWidth="1"/>
+    <col min="13827" max="13827" width="9.109375" style="2"/>
+    <col min="13828" max="13828" width="70.6640625" style="2" customWidth="1"/>
+    <col min="13829" max="14080" width="9.109375" style="2"/>
+    <col min="14081" max="14081" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="70.6640625" style="2" customWidth="1"/>
+    <col min="14083" max="14083" width="9.109375" style="2"/>
+    <col min="14084" max="14084" width="70.6640625" style="2" customWidth="1"/>
+    <col min="14085" max="14336" width="9.109375" style="2"/>
+    <col min="14337" max="14337" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="70.6640625" style="2" customWidth="1"/>
+    <col min="14339" max="14339" width="9.109375" style="2"/>
+    <col min="14340" max="14340" width="70.6640625" style="2" customWidth="1"/>
+    <col min="14341" max="14592" width="9.109375" style="2"/>
+    <col min="14593" max="14593" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="70.6640625" style="2" customWidth="1"/>
+    <col min="14595" max="14595" width="9.109375" style="2"/>
+    <col min="14596" max="14596" width="70.6640625" style="2" customWidth="1"/>
+    <col min="14597" max="14848" width="9.109375" style="2"/>
+    <col min="14849" max="14849" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="70.6640625" style="2" customWidth="1"/>
+    <col min="14851" max="14851" width="9.109375" style="2"/>
+    <col min="14852" max="14852" width="70.6640625" style="2" customWidth="1"/>
+    <col min="14853" max="15104" width="9.109375" style="2"/>
+    <col min="15105" max="15105" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="70.6640625" style="2" customWidth="1"/>
+    <col min="15107" max="15107" width="9.109375" style="2"/>
+    <col min="15108" max="15108" width="70.6640625" style="2" customWidth="1"/>
+    <col min="15109" max="15360" width="9.109375" style="2"/>
+    <col min="15361" max="15361" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="70.6640625" style="2" customWidth="1"/>
+    <col min="15363" max="15363" width="9.109375" style="2"/>
+    <col min="15364" max="15364" width="70.6640625" style="2" customWidth="1"/>
+    <col min="15365" max="15616" width="9.109375" style="2"/>
+    <col min="15617" max="15617" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="70.6640625" style="2" customWidth="1"/>
+    <col min="15619" max="15619" width="9.109375" style="2"/>
+    <col min="15620" max="15620" width="70.6640625" style="2" customWidth="1"/>
+    <col min="15621" max="15872" width="9.109375" style="2"/>
+    <col min="15873" max="15873" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="70.6640625" style="2" customWidth="1"/>
+    <col min="15875" max="15875" width="9.109375" style="2"/>
+    <col min="15876" max="15876" width="70.6640625" style="2" customWidth="1"/>
+    <col min="15877" max="16128" width="9.109375" style="2"/>
+    <col min="16129" max="16129" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="70.6640625" style="2" customWidth="1"/>
+    <col min="16131" max="16131" width="9.109375" style="2"/>
+    <col min="16132" max="16132" width="70.6640625" style="2" customWidth="1"/>
+    <col min="16133" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>109</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>111</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>112</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>113</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>114</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>115</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>116</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>117</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>118</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>119</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>120</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>121</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>122</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
         <v>123</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
         <v>124</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>125</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>126</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="47" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
+      <c r="B21" s="47" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="47" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="B22" s="47" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="47" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="B23" s="47" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="47" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+      <c r="B24" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="47" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B25" s="47" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" s="47" t="s">
+    <row r="26" spans="1:2" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="47" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>143</v>
-      </c>
       <c r="B26" s="47" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="43" customFormat="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="47" t="s">
         <v>108</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="47" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" s="47" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="47" t="s">
         <v>142</v>
-      </c>
-      <c r="B32" s="47" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2873,29 +2872,29 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16" width="7.7109375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16" width="7.6640625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -2945,9 +2944,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="22">
         <v>1217</v>
@@ -2995,7 +2994,7 @@
         <v>11448</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -3045,7 +3044,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -3095,7 +3094,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -3145,7 +3144,7 @@
         <v>7335</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -3195,7 +3194,7 @@
         <v>2795</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
@@ -3245,7 +3244,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
@@ -3295,49 +3294,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -3359,29 +3358,29 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="24" width="7.7109375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="2" max="24" width="7.6640625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -3455,9 +3454,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
@@ -3529,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -3603,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -3677,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -3751,7 +3750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -3825,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
@@ -3899,44 +3898,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3958,29 +3957,29 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="24" width="7.7109375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="2" max="24" width="7.6640625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -4054,9 +4053,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="9">
         <v>274</v>
@@ -4128,7 +4127,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -4202,7 +4201,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -4276,7 +4275,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -4350,7 +4349,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -4424,7 +4423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
@@ -4498,44 +4497,44 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4557,29 +4556,29 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="15" width="7.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="2" max="15" width="7.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -4626,9 +4625,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="9">
         <v>3384</v>
@@ -4673,7 +4672,7 @@
         <v>11314</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -4720,7 +4719,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -4767,7 +4766,7 @@
         <v>3674</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -4814,7 +4813,7 @@
         <v>5126</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -4861,7 +4860,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
@@ -4908,7 +4907,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
@@ -4955,39 +4954,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -5009,29 +5008,29 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="2" max="17" width="7.6640625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -5084,9 +5083,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="9">
         <v>32825</v>
@@ -5137,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -5190,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -5243,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -5296,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -5349,7 +5348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
@@ -5402,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
@@ -5455,44 +5454,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -5514,29 +5513,29 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="2" max="17" width="7.6640625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -5589,9 +5588,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="9">
         <v>17</v>
@@ -5642,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -5695,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -5748,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -5801,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -5854,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
@@ -5907,39 +5906,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -5961,29 +5960,29 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="24" width="7.7109375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="2" max="24" width="7.6640625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -6057,9 +6056,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="9">
         <v>4976</v>
@@ -6131,7 +6130,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -6205,7 +6204,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -6279,7 +6278,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -6353,7 +6352,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -6427,7 +6426,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
@@ -6501,7 +6500,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
@@ -6575,47 +6574,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>100</v>
       </c>
@@ -6639,29 +6638,29 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="13" width="7.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="2" max="13" width="7.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -6702,9 +6701,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="9">
         <v>29433</v>
@@ -6743,7 +6742,7 @@
         <v>21580</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -6784,7 +6783,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -6825,7 +6824,7 @@
         <v>4460</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -6866,7 +6865,7 @@
         <v>12126</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -6907,7 +6906,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
@@ -6948,7 +6947,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
@@ -6989,32 +6988,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>102</v>
       </c>
@@ -7038,29 +7037,29 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="13" width="7.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="2" max="13" width="7.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -7101,9 +7100,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="9">
         <v>3713</v>
@@ -7142,7 +7141,7 @@
         <v>3238</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -7183,7 +7182,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -7224,7 +7223,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -7265,7 +7264,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -7306,7 +7305,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
@@ -7347,7 +7346,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
@@ -7388,32 +7387,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>102</v>
       </c>
@@ -7437,29 +7436,29 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="24" width="7.7109375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="24" width="7.6640625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -7533,9 +7532,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="32">
         <v>5.93</v>
@@ -7567,7 +7566,7 @@
       <c r="K5" s="32">
         <v>15.6</v>
       </c>
-      <c r="L5" s="69">
+      <c r="L5" s="66">
         <v>16.62</v>
       </c>
       <c r="M5" s="32">
@@ -7607,7 +7606,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -7641,7 +7640,7 @@
       <c r="K6" s="33">
         <v>6.45</v>
       </c>
-      <c r="L6" s="69">
+      <c r="L6" s="66">
         <v>6.83</v>
       </c>
       <c r="M6" s="33">
@@ -7681,7 +7680,7 @@
         <v>20.96</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -7715,7 +7714,7 @@
       <c r="K7" s="33">
         <v>5.94</v>
       </c>
-      <c r="L7" s="69">
+      <c r="L7" s="66">
         <v>6.8</v>
       </c>
       <c r="M7" s="33">
@@ -7755,7 +7754,7 @@
         <v>14.79</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -7789,7 +7788,7 @@
       <c r="K8" s="33">
         <v>22.67</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="66">
         <v>22.6</v>
       </c>
       <c r="M8" s="33">
@@ -7829,7 +7828,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -7863,7 +7862,7 @@
       <c r="K9" s="33">
         <v>20.51</v>
       </c>
-      <c r="L9" s="69">
+      <c r="L9" s="66">
         <v>24.84</v>
       </c>
       <c r="M9" s="33">
@@ -7903,7 +7902,7 @@
         <v>30.91</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
@@ -7937,7 +7936,7 @@
       <c r="K10" s="34">
         <v>10.6</v>
       </c>
-      <c r="L10" s="70">
+      <c r="L10" s="67">
         <v>12.9</v>
       </c>
       <c r="M10" s="34">
@@ -7977,72 +7976,72 @@
         <v>19.54</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
     </row>
-    <row r="21" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -8064,29 +8063,29 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="24" width="7.7109375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="2" max="24" width="7.6640625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -8160,9 +8159,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="9">
         <v>61435</v>
@@ -8234,7 +8233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -8308,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -8382,7 +8381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -8456,7 +8455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -8530,7 +8529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
@@ -8604,49 +8603,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -8668,29 +8667,29 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
-    <col min="2" max="24" width="7.7109375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
+    <col min="2" max="24" width="7.6640625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -8764,9 +8763,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="32">
         <v>51.75</v>
@@ -8838,7 +8837,7 @@
         <v>37.28</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -8912,7 +8911,7 @@
         <v>45.16</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -8986,7 +8985,7 @@
         <v>36.39</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -9060,7 +9059,7 @@
         <v>40.15</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -9134,7 +9133,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
@@ -9208,59 +9207,59 @@
         <v>24.66</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -9282,30 +9281,30 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
-    <col min="2" max="21" width="7.7109375" style="1" customWidth="1"/>
-    <col min="22" max="24" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
+    <col min="2" max="21" width="7.6640625" style="1" customWidth="1"/>
+    <col min="22" max="24" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -9379,9 +9378,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="32">
         <v>27.29</v>
@@ -9453,7 +9452,7 @@
         <v>301.47000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -9527,7 +9526,7 @@
         <v>257.77</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -9601,7 +9600,7 @@
         <v>403.26</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -9675,7 +9674,7 @@
         <v>307.07</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -9749,7 +9748,7 @@
         <v>18.09</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
@@ -9823,49 +9822,49 @@
         <v>483.43</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -9887,29 +9886,29 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
-    <col min="2" max="24" width="7.7109375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
+    <col min="2" max="24" width="7.6640625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -9983,9 +9982,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="32">
         <v>17.18</v>
@@ -10057,7 +10056,7 @@
         <v>11.86</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -10131,7 +10130,7 @@
         <v>61.07</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -10205,7 +10204,7 @@
         <v>15.07</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -10279,7 +10278,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -10353,7 +10352,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
@@ -10427,49 +10426,49 @@
         <v>21.65</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -10491,29 +10490,29 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
-    <col min="2" max="23" width="7.7109375" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
+    <col min="2" max="23" width="7.6640625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -10584,9 +10583,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="32">
         <v>1.03</v>
@@ -10655,7 +10654,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -10726,7 +10725,7 @@
         <v>3.68</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -10797,7 +10796,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -10868,7 +10867,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -10939,7 +10938,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
@@ -11010,54 +11009,54 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -11079,29 +11078,29 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
-    <col min="2" max="24" width="7.7109375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
+    <col min="2" max="24" width="7.6640625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -11175,9 +11174,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="32">
         <v>19.96</v>
@@ -11249,7 +11248,7 @@
         <v>17.39</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -11323,7 +11322,7 @@
         <v>42.64</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -11397,7 +11396,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -11471,7 +11470,7 @@
         <v>6.69</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -11545,7 +11544,7 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
@@ -11619,59 +11618,59 @@
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -11693,31 +11692,31 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="24" width="7.7109375" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="29.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="24" width="7.6640625" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B4" s="5">
         <v>1990</v>
@@ -11789,9 +11788,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="32">
         <v>3.79</v>
@@ -11863,9 +11862,9 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B6" s="32">
         <v>33.15</v>
@@ -11937,7 +11936,7 @@
         <v>8.98</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
@@ -12011,9 +12010,9 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B8" s="33">
         <v>162.97999999999999</v>
@@ -12085,9 +12084,9 @@
         <v>14.72</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B9" s="33">
         <v>35.58</v>
@@ -12159,9 +12158,9 @@
         <v>35.619999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B10" s="33">
         <v>13.98</v>
@@ -12233,9 +12232,9 @@
         <v>23.13</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B11" s="33">
         <v>122.25</v>
@@ -12307,9 +12306,9 @@
         <v>12.64</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B12" s="33">
         <v>22.87</v>
@@ -12381,9 +12380,9 @@
         <v>10.29</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B13" s="33">
         <v>38.380000000000003</v>
@@ -12455,9 +12454,9 @@
         <v>18.739999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B14" s="33">
         <v>5.18</v>
@@ -12529,7 +12528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -12603,9 +12602,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B16" s="33">
         <v>7.22</v>
@@ -12677,7 +12676,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>2</v>
       </c>
@@ -12751,7 +12750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>3</v>
       </c>
@@ -12825,7 +12824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>4</v>
       </c>
@@ -12899,9 +12898,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B20" s="34">
         <v>74.16</v>
@@ -12973,64 +12972,64 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -13052,83 +13051,83 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="25" width="7.7109375" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="29.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="25" width="7.6640625" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="66">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="68">
         <v>1997</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68">
         <v>1998</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66">
+      <c r="E4" s="68"/>
+      <c r="F4" s="68">
         <v>1999</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66">
+      <c r="G4" s="68"/>
+      <c r="H4" s="68">
         <v>2000</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66">
+      <c r="I4" s="68"/>
+      <c r="J4" s="68">
         <v>2001</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66">
+      <c r="K4" s="68"/>
+      <c r="L4" s="68">
         <v>2002</v>
       </c>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66">
+      <c r="M4" s="68"/>
+      <c r="N4" s="68">
         <v>2003</v>
       </c>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66">
+      <c r="O4" s="68"/>
+      <c r="P4" s="68">
         <v>2005</v>
       </c>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66" t="s">
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66" t="s">
+      <c r="S4" s="68"/>
+      <c r="T4" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="U4" s="67"/>
-      <c r="V4" s="66" t="s">
-        <v>161</v>
-      </c>
-      <c r="W4" s="67"/>
-      <c r="X4" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y4" s="67"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="W4" s="69"/>
+      <c r="X4" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y4" s="69"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="70"/>
       <c r="B5" s="5" t="s">
         <v>49</v>
       </c>
@@ -13202,7 +13201,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>52</v>
       </c>
@@ -13231,9 +13230,9 @@
       <c r="X6" s="30"/>
       <c r="Y6" s="30"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B7" s="35">
         <v>20.14</v>
@@ -13308,7 +13307,7 @@
         <v>10.08</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -13385,7 +13384,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
@@ -13462,7 +13461,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>2</v>
       </c>
@@ -13539,7 +13538,7 @@
         <v>11.22</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>3</v>
       </c>
@@ -13616,7 +13615,7 @@
         <v>18.579999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>4</v>
       </c>
@@ -13693,7 +13692,7 @@
         <v>9.1300000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>53</v>
       </c>
@@ -13722,9 +13721,9 @@
       <c r="X13" s="35"/>
       <c r="Y13" s="35"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B14" s="35">
         <v>7.02</v>
@@ -13799,7 +13798,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>0</v>
       </c>
@@ -13876,7 +13875,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>1</v>
       </c>
@@ -13953,7 +13952,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>2</v>
       </c>
@@ -14030,7 +14029,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>3</v>
       </c>
@@ -14107,7 +14106,7 @@
         <v>5.07</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>4</v>
       </c>
@@ -14184,7 +14183,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>54</v>
       </c>
@@ -14213,9 +14212,9 @@
       <c r="X20" s="35"/>
       <c r="Y20" s="35"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B21" s="35">
         <v>18.579999999999998</v>
@@ -14290,7 +14289,7 @@
         <v>7.42</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>0</v>
       </c>
@@ -14367,7 +14366,7 @@
         <v>5.83</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>1</v>
       </c>
@@ -14444,7 +14443,7 @@
         <v>5.59</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>2</v>
       </c>
@@ -14521,7 +14520,7 @@
         <v>8.7200000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>3</v>
       </c>
@@ -14598,7 +14597,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>4</v>
       </c>
@@ -14675,7 +14674,7 @@
         <v>6.76</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>55</v>
       </c>
@@ -14704,9 +14703,9 @@
       <c r="X27" s="35"/>
       <c r="Y27" s="35"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B28" s="35">
         <v>12.38</v>
@@ -14781,7 +14780,7 @@
         <v>15.94</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>0</v>
       </c>
@@ -14858,7 +14857,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>1</v>
       </c>
@@ -14935,7 +14934,7 @@
         <v>6.66</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>2</v>
       </c>
@@ -15012,7 +15011,7 @@
         <v>23.01</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>3</v>
       </c>
@@ -15089,7 +15088,7 @@
         <v>19.850000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>4</v>
       </c>
@@ -15166,7 +15165,7 @@
         <v>14.71</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>56</v>
       </c>
@@ -15195,9 +15194,9 @@
       <c r="X34" s="35"/>
       <c r="Y34" s="35"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B35" s="35" t="s">
         <v>5</v>
@@ -15272,7 +15271,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>0</v>
       </c>
@@ -15349,7 +15348,7 @@
         <v>19.38</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>1</v>
       </c>
@@ -15426,7 +15425,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>2</v>
       </c>
@@ -15503,7 +15502,7 @@
         <v>68.930000000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
         <v>3</v>
       </c>
@@ -15580,7 +15579,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>4</v>
       </c>
@@ -15657,7 +15656,7 @@
         <v>47.56</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>57</v>
       </c>
@@ -15686,9 +15685,9 @@
       <c r="X41" s="35"/>
       <c r="Y41" s="35"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B42" s="35" t="s">
         <v>5</v>
@@ -15763,7 +15762,7 @@
         <v>17.489999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>0</v>
       </c>
@@ -15840,7 +15839,7 @@
         <v>23.62</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>1</v>
       </c>
@@ -15917,7 +15916,7 @@
         <v>17.96</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
         <v>2</v>
       </c>
@@ -15994,7 +15993,7 @@
         <v>15.53</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>3</v>
       </c>
@@ -16071,7 +16070,7 @@
         <v>13.88</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>4</v>
       </c>
@@ -16148,7 +16147,7 @@
         <v>27.71</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
         <v>58</v>
       </c>
@@ -16177,9 +16176,9 @@
       <c r="X48" s="35"/>
       <c r="Y48" s="35"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B49" s="35">
         <v>19.36</v>
@@ -16254,7 +16253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>0</v>
       </c>
@@ -16331,7 +16330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
         <v>1</v>
       </c>
@@ -16408,7 +16407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
         <v>2</v>
       </c>
@@ -16485,7 +16484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
         <v>3</v>
       </c>
@@ -16562,7 +16561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>4</v>
       </c>
@@ -16639,7 +16638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
         <v>59</v>
       </c>
@@ -16668,9 +16667,9 @@
       <c r="X55" s="35"/>
       <c r="Y55" s="35"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B56" s="35">
         <v>7.48</v>
@@ -16745,7 +16744,7 @@
         <v>4.18</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
         <v>0</v>
       </c>
@@ -16822,7 +16821,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
         <v>1</v>
       </c>
@@ -16899,7 +16898,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
         <v>2</v>
       </c>
@@ -16976,7 +16975,7 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>3</v>
       </c>
@@ -17053,7 +17052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
         <v>4</v>
       </c>
@@ -17130,7 +17129,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="19" t="s">
         <v>60</v>
       </c>
@@ -17159,9 +17158,9 @@
       <c r="X62" s="35"/>
       <c r="Y62" s="35"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B63" s="35">
         <v>2.76</v>
@@ -17236,7 +17235,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
         <v>0</v>
       </c>
@@ -17313,7 +17312,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
         <v>1</v>
       </c>
@@ -17390,7 +17389,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
         <v>2</v>
       </c>
@@ -17467,7 +17466,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
         <v>3</v>
       </c>
@@ -17544,7 +17543,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
         <v>4</v>
       </c>
@@ -17621,7 +17620,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
         <v>61</v>
       </c>
@@ -17650,9 +17649,9 @@
       <c r="X69" s="35"/>
       <c r="Y69" s="35"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B70" s="35">
         <v>29.68</v>
@@ -17727,7 +17726,7 @@
         <v>71.3</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
         <v>0</v>
       </c>
@@ -17804,7 +17803,7 @@
         <v>42.98</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
         <v>1</v>
       </c>
@@ -17881,7 +17880,7 @@
         <v>41.57</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
         <v>2</v>
       </c>
@@ -17958,7 +17957,7 @@
         <v>90.94</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
         <v>3</v>
       </c>
@@ -18035,7 +18034,7 @@
         <v>68.05</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="17" t="s">
         <v>4</v>
       </c>
@@ -18112,29 +18111,29 @@
         <v>108.58</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="19" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="19" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -18168,35 +18167,33 @@
       <selection activeCell="B5" sqref="B5"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="8.7109375" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="32.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="8.6640625" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>158</v>
-      </c>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
       <c r="B4" s="5">
         <v>1997</v>
       </c>
@@ -18243,27 +18240,57 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="B5" s="33">
+        <v>253.1</v>
+      </c>
+      <c r="C5" s="33">
+        <v>220.73</v>
+      </c>
+      <c r="D5" s="33">
+        <v>212.45</v>
+      </c>
+      <c r="E5" s="33">
+        <v>173.09</v>
+      </c>
+      <c r="F5" s="33">
+        <v>153.15</v>
+      </c>
+      <c r="G5" s="33">
+        <v>172.53</v>
+      </c>
+      <c r="H5" s="33">
+        <v>175.15</v>
+      </c>
+      <c r="I5" s="33">
+        <v>192.54</v>
+      </c>
+      <c r="J5" s="33">
+        <v>194.04</v>
+      </c>
+      <c r="K5" s="33">
+        <v>193.42</v>
+      </c>
+      <c r="L5" s="33">
+        <v>177.27</v>
+      </c>
+      <c r="M5" s="33">
+        <v>235.9</v>
+      </c>
+      <c r="N5" s="33">
+        <v>222.05</v>
+      </c>
+      <c r="O5" s="35">
+        <v>198.28</v>
+      </c>
+      <c r="P5" s="35">
+        <v>187.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>106</v>
       </c>
@@ -18313,7 +18340,7 @@
         <v>187.61</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>85</v>
       </c>
@@ -18363,7 +18390,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>86</v>
       </c>
@@ -18413,7 +18440,7 @@
         <v>110.95</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>87</v>
       </c>
@@ -18463,7 +18490,7 @@
         <v>26.27</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>88</v>
       </c>
@@ -18513,7 +18540,7 @@
         <v>46.01</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>0</v>
       </c>
@@ -18533,7 +18560,7 @@
       <c r="O11" s="33"/>
       <c r="P11" s="33"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>106</v>
       </c>
@@ -18583,7 +18610,7 @@
         <v>169.15</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>85</v>
       </c>
@@ -18633,7 +18660,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>86</v>
       </c>
@@ -18683,7 +18710,7 @@
         <v>99.32</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>87</v>
       </c>
@@ -18733,7 +18760,7 @@
         <v>20.27</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>88</v>
       </c>
@@ -18783,7 +18810,7 @@
         <v>45.11</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>1</v>
       </c>
@@ -18803,7 +18830,7 @@
       <c r="O17" s="35"/>
       <c r="P17" s="35"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>106</v>
       </c>
@@ -18853,7 +18880,7 @@
         <v>144.85</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>85</v>
       </c>
@@ -18903,7 +18930,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>86</v>
       </c>
@@ -18953,7 +18980,7 @@
         <v>68.930000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>87</v>
       </c>
@@ -19003,7 +19030,7 @@
         <v>17.760000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>88</v>
       </c>
@@ -19053,7 +19080,7 @@
         <v>54.04</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>2</v>
       </c>
@@ -19073,7 +19100,7 @@
       <c r="O23" s="35"/>
       <c r="P23" s="35"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>106</v>
       </c>
@@ -19123,7 +19150,7 @@
         <v>192.9</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>85</v>
       </c>
@@ -19173,7 +19200,7 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>86</v>
       </c>
@@ -19223,7 +19250,7 @@
         <v>121.35</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>87</v>
       </c>
@@ -19273,7 +19300,7 @@
         <v>28.97</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>88</v>
       </c>
@@ -19323,7 +19350,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>3</v>
       </c>
@@ -19343,7 +19370,7 @@
       <c r="O29" s="35"/>
       <c r="P29" s="35"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>106</v>
       </c>
@@ -19393,7 +19420,7 @@
         <v>227.29</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>85</v>
       </c>
@@ -19443,7 +19470,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>86</v>
       </c>
@@ -19493,7 +19520,7 @@
         <v>128.16</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>87</v>
       </c>
@@ -19543,7 +19570,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>88</v>
       </c>
@@ -19593,7 +19620,7 @@
         <v>67.72</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>4</v>
       </c>
@@ -19613,7 +19640,7 @@
       <c r="O35" s="41"/>
       <c r="P35" s="41"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>106</v>
       </c>
@@ -19663,7 +19690,7 @@
         <v>164.63</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>85</v>
       </c>
@@ -19713,7 +19740,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>86</v>
       </c>
@@ -19763,7 +19790,7 @@
         <v>98.97</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
         <v>87</v>
       </c>
@@ -19813,7 +19840,7 @@
         <v>26.89</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
         <v>88</v>
       </c>
@@ -19863,57 +19890,57 @@
         <v>35.79</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>84</v>
       </c>
@@ -19937,29 +19964,29 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="24" width="7.7109375" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="29.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="24" width="7.6640625" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -20033,9 +20060,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="37">
         <v>19.54</v>
@@ -20107,7 +20134,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -20181,7 +20208,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -20255,7 +20282,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -20329,7 +20356,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -20403,7 +20430,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
@@ -20477,37 +20504,37 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
@@ -20531,31 +20558,31 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="3" customWidth="1"/>
-    <col min="2" max="24" width="7.7109375" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="21.88671875" style="3" customWidth="1"/>
+    <col min="2" max="24" width="7.6640625" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B4" s="5">
         <v>1990</v>
@@ -20627,9 +20654,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
@@ -20655,7 +20682,7 @@
       <c r="W5" s="32"/>
       <c r="X5" s="32"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>90</v>
       </c>
@@ -20729,7 +20756,7 @@
         <v>93.8</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>91</v>
       </c>
@@ -20803,7 +20830,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>89</v>
       </c>
@@ -20877,7 +20904,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
@@ -20905,7 +20932,7 @@
       <c r="W9" s="33"/>
       <c r="X9" s="33"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>90</v>
       </c>
@@ -20979,7 +21006,7 @@
         <v>94.91</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>91</v>
       </c>
@@ -21053,7 +21080,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>89</v>
       </c>
@@ -21127,7 +21154,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
@@ -21155,7 +21182,7 @@
       <c r="W13" s="33"/>
       <c r="X13" s="33"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>90</v>
       </c>
@@ -21229,7 +21256,7 @@
         <v>95.66</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>91</v>
       </c>
@@ -21303,7 +21330,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>89</v>
       </c>
@@ -21377,7 +21404,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>2</v>
       </c>
@@ -21405,7 +21432,7 @@
       <c r="W17" s="33"/>
       <c r="X17" s="33"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>90</v>
       </c>
@@ -21479,7 +21506,7 @@
         <v>93.51</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>91</v>
       </c>
@@ -21553,7 +21580,7 @@
         <v>5.03</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>89</v>
       </c>
@@ -21627,7 +21654,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>3</v>
       </c>
@@ -21655,7 +21682,7 @@
       <c r="W21" s="33"/>
       <c r="X21" s="33"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>90</v>
       </c>
@@ -21729,7 +21756,7 @@
         <v>91.74</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>91</v>
       </c>
@@ -21803,7 +21830,7 @@
         <v>5.96</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>89</v>
       </c>
@@ -21877,7 +21904,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>4</v>
       </c>
@@ -21905,7 +21932,7 @@
       <c r="W25" s="33"/>
       <c r="X25" s="33"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>90</v>
       </c>
@@ -21979,7 +22006,7 @@
         <v>96.11</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>91</v>
       </c>
@@ -22053,7 +22080,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>89</v>
       </c>
@@ -22127,29 +22154,29 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -22172,29 +22199,29 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="2" max="17" width="7.6640625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -22247,9 +22274,9 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="9">
         <v>140</v>
@@ -22300,7 +22327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -22353,7 +22380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -22406,7 +22433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -22459,7 +22486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -22512,7 +22539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
@@ -22565,39 +22592,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -22619,31 +22646,31 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="7.7109375" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="40.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="7.6640625" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B4" s="5">
         <v>1998</v>
@@ -22691,9 +22718,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
@@ -22711,7 +22738,7 @@
       <c r="O5" s="32"/>
       <c r="P5" s="32"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>92</v>
       </c>
@@ -22761,7 +22788,7 @@
         <v>24.83</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>93</v>
       </c>
@@ -22811,7 +22838,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>95</v>
       </c>
@@ -22861,7 +22888,7 @@
         <v>5.92</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>96</v>
       </c>
@@ -22911,7 +22938,7 @@
         <v>12.52</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>94</v>
       </c>
@@ -22961,7 +22988,7 @@
         <v>8.89</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>97</v>
       </c>
@@ -23011,9 +23038,9 @@
         <v>35.15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B12" s="33">
         <v>181.38</v>
@@ -23061,7 +23088,7 @@
         <v>119.3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
@@ -23081,7 +23108,7 @@
       <c r="O13" s="33"/>
       <c r="P13" s="33"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>92</v>
       </c>
@@ -23131,7 +23158,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>93</v>
       </c>
@@ -23181,7 +23208,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>95</v>
       </c>
@@ -23231,7 +23258,7 @@
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>96</v>
       </c>
@@ -23281,7 +23308,7 @@
         <v>4.34</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>94</v>
       </c>
@@ -23331,7 +23358,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>97</v>
       </c>
@@ -23381,9 +23408,9 @@
         <v>42.99</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B20" s="33">
         <v>197.2</v>
@@ -23431,7 +23458,7 @@
         <v>151.09</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>1</v>
       </c>
@@ -23451,7 +23478,7 @@
       <c r="O21" s="33"/>
       <c r="P21" s="33"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>92</v>
       </c>
@@ -23501,7 +23528,7 @@
         <v>18.78</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>93</v>
       </c>
@@ -23551,7 +23578,7 @@
         <v>8.3699999999999992</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>95</v>
       </c>
@@ -23601,7 +23628,7 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>96</v>
       </c>
@@ -23651,7 +23678,7 @@
         <v>7.41</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>94</v>
       </c>
@@ -23701,7 +23728,7 @@
         <v>8.26</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>97</v>
       </c>
@@ -23751,9 +23778,9 @@
         <v>31.59</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B28" s="33">
         <v>194.6</v>
@@ -23801,7 +23828,7 @@
         <v>127.57</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>2</v>
       </c>
@@ -23821,7 +23848,7 @@
       <c r="O29" s="33"/>
       <c r="P29" s="33"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>92</v>
       </c>
@@ -23871,7 +23898,7 @@
         <v>27.42</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>93</v>
       </c>
@@ -23921,7 +23948,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>95</v>
       </c>
@@ -23971,7 +23998,7 @@
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>96</v>
       </c>
@@ -24021,7 +24048,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>94</v>
       </c>
@@ -24071,7 +24098,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>97</v>
       </c>
@@ -24121,9 +24148,9 @@
         <v>31.09</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B36" s="33">
         <v>147.27000000000001</v>
@@ -24171,7 +24198,7 @@
         <v>98.26</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>3</v>
       </c>
@@ -24191,7 +24218,7 @@
       <c r="O37" s="33"/>
       <c r="P37" s="33"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>92</v>
       </c>
@@ -24241,7 +24268,7 @@
         <v>39.31</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
         <v>93</v>
       </c>
@@ -24291,7 +24318,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>95</v>
       </c>
@@ -24341,7 +24368,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
         <v>96</v>
       </c>
@@ -24391,7 +24418,7 @@
         <v>22.28</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>94</v>
       </c>
@@ -24441,7 +24468,7 @@
         <v>11.44</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>97</v>
       </c>
@@ -24491,9 +24518,9 @@
         <v>47.27</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B44" s="33">
         <v>222.8</v>
@@ -24541,7 +24568,7 @@
         <v>141.69</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>4</v>
       </c>
@@ -24561,7 +24588,7 @@
       <c r="O45" s="33"/>
       <c r="P45" s="33"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>92</v>
       </c>
@@ -24611,7 +24638,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>93</v>
       </c>
@@ -24661,7 +24688,7 @@
         <v>8.14</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>95</v>
       </c>
@@ -24711,7 +24738,7 @@
         <v>6.61</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
         <v>96</v>
       </c>
@@ -24761,7 +24788,7 @@
         <v>11.07</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>94</v>
       </c>
@@ -24811,7 +24838,7 @@
         <v>7.41</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="50" t="s">
         <v>97</v>
       </c>
@@ -24861,9 +24888,9 @@
         <v>39.25</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B52" s="34">
         <v>199.91</v>
@@ -24911,29 +24938,29 @@
         <v>128.31</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -24956,31 +24983,31 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="7.7109375" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="40.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="7.6640625" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B4" s="5">
         <v>1998</v>
@@ -25028,9 +25055,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -25048,7 +25075,7 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>98</v>
       </c>
@@ -25098,7 +25125,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>65</v>
       </c>
@@ -25148,9 +25175,9 @@
         <v>19.260000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B8" s="33">
         <v>6.63</v>
@@ -25198,7 +25225,7 @@
         <v>8.2100000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>66</v>
       </c>
@@ -25248,9 +25275,9 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B10" s="33">
         <v>2.27</v>
@@ -25298,7 +25325,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>67</v>
       </c>
@@ -25348,7 +25375,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>68</v>
       </c>
@@ -25398,7 +25425,7 @@
         <v>20.58</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
@@ -25418,7 +25445,7 @@
       <c r="O13" s="33"/>
       <c r="P13" s="33"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>98</v>
       </c>
@@ -25468,7 +25495,7 @@
         <v>53.86</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>65</v>
       </c>
@@ -25518,9 +25545,9 @@
         <v>8.01</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B16" s="33">
         <v>4.71</v>
@@ -25568,7 +25595,7 @@
         <v>5.91</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>66</v>
       </c>
@@ -25618,9 +25645,9 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B18" s="33">
         <v>4.4000000000000004</v>
@@ -25668,7 +25695,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>67</v>
       </c>
@@ -25718,7 +25745,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>68</v>
       </c>
@@ -25768,7 +25795,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>1</v>
       </c>
@@ -25788,7 +25815,7 @@
       <c r="O21" s="33"/>
       <c r="P21" s="33"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>98</v>
       </c>
@@ -25838,7 +25865,7 @@
         <v>43.81</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>65</v>
       </c>
@@ -25888,9 +25915,9 @@
         <v>13.52</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B24" s="33">
         <v>3.99</v>
@@ -25938,7 +25965,7 @@
         <v>7.91</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>66</v>
       </c>
@@ -25988,9 +26015,9 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B26" s="33">
         <v>1.87</v>
@@ -26038,7 +26065,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>67</v>
       </c>
@@ -26088,7 +26115,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>68</v>
       </c>
@@ -26138,7 +26165,7 @@
         <v>18.86</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>2</v>
       </c>
@@ -26158,7 +26185,7 @@
       <c r="O29" s="33"/>
       <c r="P29" s="33"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>98</v>
       </c>
@@ -26208,7 +26235,7 @@
         <v>50.31</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>65</v>
       </c>
@@ -26258,9 +26285,9 @@
         <v>21.49</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B32" s="33">
         <v>9.0299999999999994</v>
@@ -26308,7 +26335,7 @@
         <v>8.74</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>66</v>
       </c>
@@ -26358,9 +26385,9 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B34" s="33">
         <v>2.4300000000000002</v>
@@ -26408,7 +26435,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>67</v>
       </c>
@@ -26458,7 +26485,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>68</v>
       </c>
@@ -26508,7 +26535,7 @@
         <v>16.64</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>3</v>
       </c>
@@ -26528,7 +26555,7 @@
       <c r="O37" s="33"/>
       <c r="P37" s="33"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>98</v>
       </c>
@@ -26578,7 +26605,7 @@
         <v>61.29</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
         <v>65</v>
       </c>
@@ -26628,9 +26655,9 @@
         <v>27.63</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B40" s="33">
         <v>5.7</v>
@@ -26678,7 +26705,7 @@
         <v>7.62</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
         <v>66</v>
       </c>
@@ -26728,9 +26755,9 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B42" s="33">
         <v>1.64</v>
@@ -26778,7 +26805,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>67</v>
       </c>
@@ -26828,7 +26855,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>68</v>
       </c>
@@ -26878,7 +26905,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>4</v>
       </c>
@@ -26898,7 +26925,7 @@
       <c r="O45" s="33"/>
       <c r="P45" s="33"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>98</v>
       </c>
@@ -26948,7 +26975,7 @@
         <v>65.52</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>65</v>
       </c>
@@ -26998,9 +27025,9 @@
         <v>24.72</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B48" s="33">
         <v>6.65</v>
@@ -27048,7 +27075,7 @@
         <v>10.029999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
         <v>66</v>
       </c>
@@ -27098,9 +27125,9 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B50" s="33">
         <v>2.08</v>
@@ -27148,7 +27175,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
         <v>67</v>
       </c>
@@ -27198,7 +27225,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
         <v>68</v>
       </c>
@@ -27248,29 +27275,29 @@
         <v>26.42</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -27293,31 +27320,31 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="7.7109375" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="47.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="7.6640625" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B4" s="5">
         <v>1998</v>
@@ -27365,9 +27392,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -27385,7 +27412,7 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>69</v>
       </c>
@@ -27435,7 +27462,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>70</v>
       </c>
@@ -27485,7 +27512,7 @@
         <v>24.18</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>71</v>
       </c>
@@ -27535,7 +27562,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>72</v>
       </c>
@@ -27585,7 +27612,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>73</v>
       </c>
@@ -27635,7 +27662,7 @@
         <v>26.92</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>74</v>
       </c>
@@ -27685,7 +27712,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>75</v>
       </c>
@@ -27735,7 +27762,7 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>76</v>
       </c>
@@ -27785,7 +27812,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>77</v>
       </c>
@@ -27835,7 +27862,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>78</v>
       </c>
@@ -27885,7 +27912,7 @@
         <v>29.07</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
@@ -27905,7 +27932,7 @@
       <c r="O16" s="33"/>
       <c r="P16" s="33"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>69</v>
       </c>
@@ -27955,7 +27982,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>70</v>
       </c>
@@ -28005,7 +28032,7 @@
         <v>22.93</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>71</v>
       </c>
@@ -28055,7 +28082,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>72</v>
       </c>
@@ -28105,7 +28132,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>73</v>
       </c>
@@ -28155,7 +28182,7 @@
         <v>23.44</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>74</v>
       </c>
@@ -28205,7 +28232,7 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>75</v>
       </c>
@@ -28255,7 +28282,7 @@
         <v>15.23</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>76</v>
       </c>
@@ -28305,7 +28332,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>77</v>
       </c>
@@ -28355,7 +28382,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>78</v>
       </c>
@@ -28405,7 +28432,7 @@
         <v>26.95</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>1</v>
       </c>
@@ -28425,7 +28452,7 @@
       <c r="O27" s="33"/>
       <c r="P27" s="33"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>69</v>
       </c>
@@ -28475,7 +28502,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>70</v>
       </c>
@@ -28525,7 +28552,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>71</v>
       </c>
@@ -28575,7 +28602,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>72</v>
       </c>
@@ -28625,7 +28652,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>73</v>
       </c>
@@ -28675,7 +28702,7 @@
         <v>25.79</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>74</v>
       </c>
@@ -28725,7 +28752,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>75</v>
       </c>
@@ -28775,7 +28802,7 @@
         <v>11.57</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>76</v>
       </c>
@@ -28825,7 +28852,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>77</v>
       </c>
@@ -28875,7 +28902,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>78</v>
       </c>
@@ -28925,7 +28952,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>2</v>
       </c>
@@ -28945,7 +28972,7 @@
       <c r="O38" s="33"/>
       <c r="P38" s="33"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
         <v>69</v>
       </c>
@@ -28995,7 +29022,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>70</v>
       </c>
@@ -29045,7 +29072,7 @@
         <v>21.91</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
         <v>71</v>
       </c>
@@ -29095,7 +29122,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>72</v>
       </c>
@@ -29145,7 +29172,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>73</v>
       </c>
@@ -29195,7 +29222,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>74</v>
       </c>
@@ -29245,7 +29272,7 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
         <v>75</v>
       </c>
@@ -29295,7 +29322,7 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>76</v>
       </c>
@@ -29345,7 +29372,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>77</v>
       </c>
@@ -29395,7 +29422,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>78</v>
       </c>
@@ -29445,7 +29472,7 @@
         <v>33.090000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>3</v>
       </c>
@@ -29465,7 +29492,7 @@
       <c r="O49" s="33"/>
       <c r="P49" s="33"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>69</v>
       </c>
@@ -29515,7 +29542,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
         <v>70</v>
       </c>
@@ -29565,7 +29592,7 @@
         <v>29.05</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
         <v>71</v>
       </c>
@@ -29615,7 +29642,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
         <v>72</v>
       </c>
@@ -29665,7 +29692,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>73</v>
       </c>
@@ -29715,7 +29742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
         <v>74</v>
       </c>
@@ -29765,7 +29792,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>75</v>
       </c>
@@ -29815,7 +29842,7 @@
         <v>5.94</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
         <v>76</v>
       </c>
@@ -29865,7 +29892,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
         <v>77</v>
       </c>
@@ -29915,7 +29942,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
         <v>78</v>
       </c>
@@ -29965,7 +29992,7 @@
         <v>32.28</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>4</v>
       </c>
@@ -29985,7 +30012,7 @@
       <c r="O60" s="33"/>
       <c r="P60" s="33"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
         <v>69</v>
       </c>
@@ -30035,7 +30062,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
         <v>70</v>
       </c>
@@ -30085,7 +30112,7 @@
         <v>22.24</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
         <v>71</v>
       </c>
@@ -30135,7 +30162,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
         <v>72</v>
       </c>
@@ -30185,7 +30212,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
         <v>73</v>
       </c>
@@ -30235,7 +30262,7 @@
         <v>27.79</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
         <v>74</v>
       </c>
@@ -30285,7 +30312,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
         <v>75</v>
       </c>
@@ -30335,7 +30362,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
         <v>76</v>
       </c>
@@ -30385,7 +30412,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
         <v>77</v>
       </c>
@@ -30435,7 +30462,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
         <v>78</v>
       </c>
@@ -30485,29 +30512,29 @@
         <v>31.77</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -30529,29 +30556,29 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="14" width="7.7109375" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="40.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="7.6640625" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -30595,9 +30622,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="61">
         <v>38.26</v>
@@ -30639,7 +30666,7 @@
         <v>55.47</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -30683,7 +30710,7 @@
         <v>30.52</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -30727,7 +30754,7 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -30771,7 +30798,7 @@
         <v>64.61</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -30815,7 +30842,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
@@ -30859,39 +30886,39 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -30913,29 +30940,29 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="15" width="7.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="2" max="15" width="7.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -30982,9 +31009,9 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="9">
         <v>1395</v>
@@ -31029,7 +31056,7 @@
         <v>5370</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -31076,7 +31103,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -31123,7 +31150,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -31170,7 +31197,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -31217,7 +31244,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
@@ -31264,44 +31291,44 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -31323,29 +31350,29 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="24" width="7.7109375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="2" max="24" width="7.6640625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -31419,9 +31446,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="9">
         <v>291</v>
@@ -31493,7 +31520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -31567,7 +31594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -31641,7 +31668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -31715,7 +31742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -31789,7 +31816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
@@ -31863,34 +31890,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="53" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -31912,29 +31939,29 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="24" width="7.7109375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="2" max="24" width="7.6640625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -32008,9 +32035,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="9">
         <v>1548</v>
@@ -32082,7 +32109,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -32156,7 +32183,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -32230,7 +32257,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -32304,7 +32331,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -32378,7 +32405,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
@@ -32452,7 +32479,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
@@ -32526,49 +32553,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -32590,29 +32617,29 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="22" width="7.7109375" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="2" max="22" width="7.6640625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -32680,9 +32707,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="9">
         <v>2</v>
@@ -32748,7 +32775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -32816,7 +32843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -32884,7 +32911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -32952,7 +32979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -33020,7 +33047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
@@ -33088,7 +33115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
@@ -33156,39 +33183,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -33210,29 +33237,29 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="22" width="7.7109375" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="2" max="22" width="7.6640625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -33300,9 +33327,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="9">
         <v>73</v>
@@ -33368,7 +33395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -33436,7 +33463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -33504,7 +33531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -33572,7 +33599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -33640,7 +33667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
@@ -33708,39 +33735,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -33762,29 +33789,29 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16" width="7.7109375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16" width="7.6640625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>51</v>
       </c>
@@ -33834,9 +33861,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="22">
         <v>706</v>
@@ -33884,7 +33911,7 @@
         <v>13778</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -33934,7 +33961,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -33984,7 +34011,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -34034,7 +34061,7 @@
         <v>5090</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -34084,7 +34111,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
@@ -34134,7 +34161,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
@@ -34184,54 +34211,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
